--- a/file_user.xlsx
+++ b/file_user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Desktop\test-file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D35D7F-625B-423A-99CE-B156D25FDE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D563AC-C7D2-48B0-80E6-723AF2F19A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,10 +392,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
